--- a/config/game/langs.xlsx
+++ b/config/game/langs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\git@service.rochgh.top.18231\ROXDBGlobal\web2\config\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\github\DayrlAssKicker\ROXDBGlobal\config\game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A3A76FB-A832-4342-BE10-2003924A47EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5511423-9F29-4D48-BFF7-81F5A35B76B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6420" yWindow="2770" windowWidth="30560" windowHeight="15490" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="langs" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="935">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1307" uniqueCount="1058">
   <si>
     <t>Key</t>
   </si>
@@ -2840,6 +2840,375 @@
   <si>
     <t>Gold Card</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pt-BR</t>
+  </si>
+  <si>
+    <t>Anjo</t>
+  </si>
+  <si>
+    <t>Demônio</t>
+  </si>
+  <si>
+    <t>Amorfo</t>
+  </si>
+  <si>
+    <t>Inseto</t>
+  </si>
+  <si>
+    <t>Peixe</t>
+  </si>
+  <si>
+    <t>Demi-Humano</t>
+  </si>
+  <si>
+    <t>Morto-vivo</t>
+  </si>
+  <si>
+    <t>Dragão</t>
+  </si>
+  <si>
+    <t>Planta</t>
+  </si>
+  <si>
+    <t>Bruto</t>
+  </si>
+  <si>
+    <t>Grande</t>
+  </si>
+  <si>
+    <t>Médio</t>
+  </si>
+  <si>
+    <t>Pequeno</t>
+  </si>
+  <si>
+    <t>Nenhum</t>
+  </si>
+  <si>
+    <t>Fogo</t>
+  </si>
+  <si>
+    <t>Água</t>
+  </si>
+  <si>
+    <t>Vento</t>
+  </si>
+  <si>
+    <t>Terra</t>
+  </si>
+  <si>
+    <t>Veneno</t>
+  </si>
+  <si>
+    <t>Sagrado</t>
+  </si>
+  <si>
+    <t>Sombra</t>
+  </si>
+  <si>
+    <t>Fantasma</t>
+  </si>
+  <si>
+    <t>Lunático</t>
+  </si>
+  <si>
+    <t>Ovo de Pecopeco</t>
+  </si>
+  <si>
+    <t>Picky (Concha)</t>
+  </si>
+  <si>
+    <t>Salgueiro</t>
+  </si>
+  <si>
+    <t>Ovo do Besouro-Ladrão</t>
+  </si>
+  <si>
+    <t>Mandrágora</t>
+  </si>
+  <si>
+    <t>Besouro-Ladrão</t>
+  </si>
+  <si>
+    <t>Bebê Selvagem</t>
+  </si>
+  <si>
+    <t>Bebê Lobo do Deserto</t>
+  </si>
+  <si>
+    <t>Besouro-Ladrão Fêmea</t>
+  </si>
+  <si>
+    <t>Plâncton</t>
+  </si>
+  <si>
+    <t>Vespa</t>
+  </si>
+  <si>
+    <t>Besouro-Ladrão Macho</t>
+  </si>
+  <si>
+    <t>Esporo</t>
+  </si>
+  <si>
+    <t>Esporo de Veneno</t>
+  </si>
+  <si>
+    <t>Chonchon de Aço</t>
+  </si>
+  <si>
+    <t>Percevejo</t>
+  </si>
+  <si>
+    <t>Poeira</t>
+  </si>
+  <si>
+    <t>Fumacento</t>
+  </si>
+  <si>
+    <t>Sapo Roda</t>
+  </si>
+  <si>
+    <t>Caramelo</t>
+  </si>
+  <si>
+    <t>Plâncton Morto</t>
+  </si>
+  <si>
+    <t>Zumbi</t>
+  </si>
+  <si>
+    <t>Chifre</t>
+  </si>
+  <si>
+    <t>Hidra</t>
+  </si>
+  <si>
+    <t>Pirata Skel com Machado</t>
+  </si>
+  <si>
+    <t>Esqueleto Pirata</t>
+  </si>
+  <si>
+    <t>Pirata Skel com Adaga</t>
+  </si>
+  <si>
+    <t>Esqueleto Operário</t>
+  </si>
+  <si>
+    <t>Mosca Caçadora</t>
+  </si>
+  <si>
+    <t>Sussuro</t>
+  </si>
+  <si>
+    <t>Névoa</t>
+  </si>
+  <si>
+    <t>Selvagem</t>
+  </si>
+  <si>
+    <t>Anaconda</t>
+  </si>
+  <si>
+    <t>Escorpião</t>
+  </si>
+  <si>
+    <t>Sorrateiro</t>
+  </si>
+  <si>
+    <t>Magnólia</t>
+  </si>
+  <si>
+    <t>Larva Formiga</t>
+  </si>
+  <si>
+    <t>Lobo do Deserto</t>
+  </si>
+  <si>
+    <t>Esqueleto Soldado</t>
+  </si>
+  <si>
+    <t>Esqueleto Arqueiro</t>
+  </si>
+  <si>
+    <t>Fen</t>
+  </si>
+  <si>
+    <t>Múmia</t>
+  </si>
+  <si>
+    <t>Verit</t>
+  </si>
+  <si>
+    <t>Esfera Marinha</t>
+  </si>
+  <si>
+    <t>Isis</t>
+  </si>
+  <si>
+    <t>Peixe-Espada</t>
+  </si>
+  <si>
+    <t>Rabo-de-verme</t>
+  </si>
+  <si>
+    <t>Réquiem</t>
+  </si>
+  <si>
+    <t>Pé Grande</t>
+  </si>
+  <si>
+    <t>Cobra</t>
+  </si>
+  <si>
+    <t>Lobo</t>
+  </si>
+  <si>
+    <t>Esqueleto</t>
+  </si>
+  <si>
+    <t>Anúbis</t>
+  </si>
+  <si>
+    <t>Salgueiro Ancião</t>
+  </si>
+  <si>
+    <t>Grande General</t>
+  </si>
+  <si>
+    <t>Nove Caudas</t>
+  </si>
+  <si>
+    <t>Goblin com Mangual</t>
+  </si>
+  <si>
+    <t>Zumbi Orc</t>
+  </si>
+  <si>
+    <t>Bebê Orc</t>
+  </si>
+  <si>
+    <t>Goblin com Maça</t>
+  </si>
+  <si>
+    <t>Kobold com Maça</t>
+  </si>
+  <si>
+    <t>Esqueleto General</t>
+  </si>
+  <si>
+    <t>Goblin com Martelo</t>
+  </si>
+  <si>
+    <t>Guerreiro Orc</t>
+  </si>
+  <si>
+    <t>Esqueleto Orc</t>
+  </si>
+  <si>
+    <t>Kobold com Martelo</t>
+  </si>
+  <si>
+    <t>Carniçal</t>
+  </si>
+  <si>
+    <t>Goblin com Machado</t>
+  </si>
+  <si>
+    <t>Marionete</t>
+  </si>
+  <si>
+    <t>Sussurro Gigante</t>
+  </si>
+  <si>
+    <t>Petite Terrestre</t>
+  </si>
+  <si>
+    <t>Goblin com Adagua</t>
+  </si>
+  <si>
+    <t>Petite Alado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arqueiro Goblin </t>
+  </si>
+  <si>
+    <t>Kobold Arqueiro</t>
+  </si>
+  <si>
+    <t>Dama Orc</t>
+  </si>
+  <si>
+    <t>Goblin a Vapor</t>
+  </si>
+  <si>
+    <t>Kobold com Machado</t>
+  </si>
+  <si>
+    <t>Grão Orc</t>
+  </si>
+  <si>
+    <t>Pesadelo</t>
+  </si>
+  <si>
+    <t>Arqueiro Orc</t>
+  </si>
+  <si>
+    <t>Fantasma do Vento</t>
+  </si>
+  <si>
+    <t>Alma Penada</t>
+  </si>
+  <si>
+    <t>Arma</t>
+  </si>
+  <si>
+    <t>Armadura</t>
+  </si>
+  <si>
+    <t>Capa</t>
+  </si>
+  <si>
+    <t>Sapatos</t>
+  </si>
+  <si>
+    <t>Acessório</t>
+  </si>
+  <si>
+    <t>Adereço</t>
+  </si>
+  <si>
+    <t>Carta Branca</t>
+  </si>
+  <si>
+    <t>Carta Azul</t>
+  </si>
+  <si>
+    <t>Carta Elite Azul</t>
+  </si>
+  <si>
+    <t>Carta Lendária</t>
+  </si>
+  <si>
+    <t>Ataque</t>
+  </si>
+  <si>
+    <t>Defesa</t>
+  </si>
+  <si>
+    <t>Atributo</t>
+  </si>
+  <si>
+    <t>Função</t>
+  </si>
+  <si>
+    <t>Encantamento</t>
+  </si>
+  <si>
+    <t>Resistência</t>
   </si>
 </sst>
 </file>
@@ -2882,8 +3251,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3223,20 +3593,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C382"/>
+  <dimension ref="A1:D382"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A189" workbookViewId="0">
-      <selection activeCell="C214" sqref="C214"/>
+    <sheetView tabSelected="1" topLeftCell="A340" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D382"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="119.83203125" customWidth="1"/>
+    <col min="2" max="2" width="119.875" customWidth="1"/>
     <col min="3" max="3" width="50" customWidth="1"/>
+    <col min="4" max="4" width="32.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3246,8 +3617,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="1" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -3257,8 +3631,11 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="1" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -3268,8 +3645,11 @@
       <c r="C3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="1" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -3279,8 +3659,11 @@
       <c r="C4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="1" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -3290,8 +3673,11 @@
       <c r="C5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" s="1" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -3301,8 +3687,11 @@
       <c r="C6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" s="1" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -3312,8 +3701,11 @@
       <c r="C7" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" s="1" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -3323,8 +3715,11 @@
       <c r="C8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" s="1" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -3334,8 +3729,11 @@
       <c r="C9" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" s="1" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -3345,8 +3743,11 @@
       <c r="C10" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" s="1" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -3356,8 +3757,11 @@
       <c r="C11" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" s="1" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -3367,8 +3771,11 @@
       <c r="C12" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" s="1" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>35</v>
       </c>
@@ -3378,8 +3785,11 @@
       <c r="C13" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13" s="1" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>38</v>
       </c>
@@ -3389,8 +3799,11 @@
       <c r="C14" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14" s="1" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>41</v>
       </c>
@@ -3400,8 +3813,11 @@
       <c r="C15" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15" s="1" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>44</v>
       </c>
@@ -3411,8 +3827,11 @@
       <c r="C16" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>47</v>
       </c>
@@ -3422,8 +3841,11 @@
       <c r="C17" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" s="1" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>50</v>
       </c>
@@ -3433,8 +3855,11 @@
       <c r="C18" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" s="1" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>53</v>
       </c>
@@ -3444,8 +3869,11 @@
       <c r="C19" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>56</v>
       </c>
@@ -3455,8 +3883,11 @@
       <c r="C20" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" s="1" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>59</v>
       </c>
@@ -3466,8 +3897,11 @@
       <c r="C21" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" s="1" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>62</v>
       </c>
@@ -3477,8 +3911,11 @@
       <c r="C22" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22" s="1" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>65</v>
       </c>
@@ -3488,8 +3925,11 @@
       <c r="C23" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23" s="1" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>68</v>
       </c>
@@ -3499,8 +3939,11 @@
       <c r="C24" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24" s="1" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>69</v>
       </c>
@@ -3510,8 +3953,11 @@
       <c r="C25" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>72</v>
       </c>
@@ -3521,8 +3967,11 @@
       <c r="C26" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>75</v>
       </c>
@@ -3532,8 +3981,11 @@
       <c r="C27" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>78</v>
       </c>
@@ -3543,8 +3995,11 @@
       <c r="C28" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28" s="1" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>81</v>
       </c>
@@ -3554,8 +4009,11 @@
       <c r="C29" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29" s="1" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>84</v>
       </c>
@@ -3565,8 +4023,11 @@
       <c r="C30" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>87</v>
       </c>
@@ -3576,8 +4037,11 @@
       <c r="C31" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>90</v>
       </c>
@@ -3587,8 +4051,11 @@
       <c r="C32" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>93</v>
       </c>
@@ -3598,8 +4065,11 @@
       <c r="C33" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33" s="1" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>96</v>
       </c>
@@ -3609,8 +4079,11 @@
       <c r="C34" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34" s="1" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>99</v>
       </c>
@@ -3620,8 +4093,11 @@
       <c r="C35" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>102</v>
       </c>
@@ -3631,8 +4107,11 @@
       <c r="C36" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>105</v>
       </c>
@@ -3642,8 +4121,11 @@
       <c r="C37" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37" s="1" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>108</v>
       </c>
@@ -3653,8 +4135,11 @@
       <c r="C38" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38" s="1" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>111</v>
       </c>
@@ -3664,8 +4149,11 @@
       <c r="C39" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39" s="1" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>114</v>
       </c>
@@ -3675,8 +4163,11 @@
       <c r="C40" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40" s="1" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>117</v>
       </c>
@@ -3686,8 +4177,11 @@
       <c r="C41" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>120</v>
       </c>
@@ -3697,8 +4191,11 @@
       <c r="C42" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42" s="1" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>123</v>
       </c>
@@ -3708,8 +4205,11 @@
       <c r="C43" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D43" s="1" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>126</v>
       </c>
@@ -3719,8 +4219,11 @@
       <c r="C44" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D44" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>129</v>
       </c>
@@ -3730,8 +4233,11 @@
       <c r="C45" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D45" s="1" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>132</v>
       </c>
@@ -3741,8 +4247,11 @@
       <c r="C46" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D46" s="1" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
         <v>135</v>
       </c>
@@ -3752,8 +4261,11 @@
       <c r="C47" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D47" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
         <v>138</v>
       </c>
@@ -3763,8 +4275,11 @@
       <c r="C48" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D48" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>141</v>
       </c>
@@ -3774,8 +4289,11 @@
       <c r="C49" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D49" s="1" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>144</v>
       </c>
@@ -3785,8 +4303,11 @@
       <c r="C50" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D50" s="1" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
         <v>147</v>
       </c>
@@ -3796,8 +4317,11 @@
       <c r="C51" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D51" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
         <v>150</v>
       </c>
@@ -3807,8 +4331,11 @@
       <c r="C52" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D52" s="1" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
         <v>153</v>
       </c>
@@ -3818,8 +4345,11 @@
       <c r="C53" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D53" s="1" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
         <v>156</v>
       </c>
@@ -3829,8 +4359,11 @@
       <c r="C54" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D54" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
         <v>159</v>
       </c>
@@ -3840,8 +4373,11 @@
       <c r="C55" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D55" s="1" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
         <v>162</v>
       </c>
@@ -3851,8 +4387,11 @@
       <c r="C56" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D56" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
         <v>165</v>
       </c>
@@ -3862,8 +4401,11 @@
       <c r="C57" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D57" s="1" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
         <v>168</v>
       </c>
@@ -3873,8 +4415,11 @@
       <c r="C58" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D58" s="1" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
         <v>171</v>
       </c>
@@ -3884,8 +4429,11 @@
       <c r="C59" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D59" s="1" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
         <v>174</v>
       </c>
@@ -3895,8 +4443,11 @@
       <c r="C60" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D60" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
         <v>177</v>
       </c>
@@ -3906,8 +4457,11 @@
       <c r="C61" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D61" s="1" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
         <v>180</v>
       </c>
@@ -3917,8 +4471,11 @@
       <c r="C62" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D62" s="1" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
         <v>183</v>
       </c>
@@ -3928,8 +4485,11 @@
       <c r="C63" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D63" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
         <v>186</v>
       </c>
@@ -3939,8 +4499,11 @@
       <c r="C64" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D64" s="1" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
         <v>189</v>
       </c>
@@ -3950,8 +4513,11 @@
       <c r="C65" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D65" s="1" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
         <v>192</v>
       </c>
@@ -3961,8 +4527,11 @@
       <c r="C66" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D66" s="1" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
         <v>195</v>
       </c>
@@ -3972,8 +4541,11 @@
       <c r="C67" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D67" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
         <v>198</v>
       </c>
@@ -3983,8 +4555,11 @@
       <c r="C68" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D68" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
         <v>201</v>
       </c>
@@ -3994,8 +4569,11 @@
       <c r="C69" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D69" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
         <v>204</v>
       </c>
@@ -4005,8 +4583,11 @@
       <c r="C70" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D70" s="1" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
         <v>207</v>
       </c>
@@ -4016,8 +4597,11 @@
       <c r="C71" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D71" s="1" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
         <v>210</v>
       </c>
@@ -4027,8 +4611,11 @@
       <c r="C72" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D72" s="1" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
         <v>213</v>
       </c>
@@ -4038,8 +4625,11 @@
       <c r="C73" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D73" s="1" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
         <v>216</v>
       </c>
@@ -4049,8 +4639,11 @@
       <c r="C74" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D74" s="1" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
         <v>219</v>
       </c>
@@ -4060,8 +4653,11 @@
       <c r="C75" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D75" s="1" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
         <v>222</v>
       </c>
@@ -4071,8 +4667,11 @@
       <c r="C76" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D76" s="1" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
         <v>225</v>
       </c>
@@ -4082,8 +4681,11 @@
       <c r="C77" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D77" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
         <v>228</v>
       </c>
@@ -4093,8 +4695,11 @@
       <c r="C78" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D78" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
         <v>231</v>
       </c>
@@ -4104,8 +4709,11 @@
       <c r="C79" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D79" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
         <v>234</v>
       </c>
@@ -4115,8 +4723,11 @@
       <c r="C80" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D80" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
         <v>237</v>
       </c>
@@ -4126,8 +4737,11 @@
       <c r="C81" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D81" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
         <v>240</v>
       </c>
@@ -4137,8 +4751,11 @@
       <c r="C82" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D82" s="1" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
         <v>243</v>
       </c>
@@ -4148,8 +4765,11 @@
       <c r="C83" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D83" s="1" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
         <v>246</v>
       </c>
@@ -4159,8 +4779,11 @@
       <c r="C84" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D84" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
         <v>249</v>
       </c>
@@ -4170,8 +4793,11 @@
       <c r="C85" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D85" s="1" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
         <v>252</v>
       </c>
@@ -4181,8 +4807,11 @@
       <c r="C86" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D86" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
         <v>255</v>
       </c>
@@ -4192,8 +4821,11 @@
       <c r="C87" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D87" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
         <v>258</v>
       </c>
@@ -4203,8 +4835,11 @@
       <c r="C88" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D88" s="1" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
         <v>261</v>
       </c>
@@ -4214,8 +4849,11 @@
       <c r="C89" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D89" s="1" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
         <v>264</v>
       </c>
@@ -4225,8 +4863,11 @@
       <c r="C90" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D90" s="1" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
         <v>267</v>
       </c>
@@ -4236,8 +4877,11 @@
       <c r="C91" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D91" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
         <v>270</v>
       </c>
@@ -4247,8 +4891,11 @@
       <c r="C92" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D92" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
         <v>273</v>
       </c>
@@ -4258,8 +4905,11 @@
       <c r="C93" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D93" s="1" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
         <v>276</v>
       </c>
@@ -4269,8 +4919,11 @@
       <c r="C94" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D94" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
         <v>279</v>
       </c>
@@ -4280,8 +4933,11 @@
       <c r="C95" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D95" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
         <v>282</v>
       </c>
@@ -4291,8 +4947,11 @@
       <c r="C96" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D96" s="1" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
         <v>285</v>
       </c>
@@ -4302,8 +4961,11 @@
       <c r="C97" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D97" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
         <v>288</v>
       </c>
@@ -4313,8 +4975,11 @@
       <c r="C98" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D98" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
         <v>291</v>
       </c>
@@ -4324,8 +4989,11 @@
       <c r="C99" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D99" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
         <v>294</v>
       </c>
@@ -4335,8 +5003,11 @@
       <c r="C100" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D100" s="1" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
         <v>297</v>
       </c>
@@ -4346,8 +5017,11 @@
       <c r="C101" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D101" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
         <v>300</v>
       </c>
@@ -4357,8 +5031,11 @@
       <c r="C102" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D102" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
         <v>303</v>
       </c>
@@ -4368,8 +5045,11 @@
       <c r="C103" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D103" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
         <v>306</v>
       </c>
@@ -4379,8 +5059,11 @@
       <c r="C104" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D104" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
         <v>309</v>
       </c>
@@ -4390,8 +5073,11 @@
       <c r="C105" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D105" s="1" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
         <v>312</v>
       </c>
@@ -4401,8 +5087,11 @@
       <c r="C106" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D106" s="1" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
         <v>315</v>
       </c>
@@ -4412,8 +5101,11 @@
       <c r="C107" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D107" s="1" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
         <v>318</v>
       </c>
@@ -4423,8 +5115,11 @@
       <c r="C108" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D108" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
         <v>321</v>
       </c>
@@ -4434,8 +5129,11 @@
       <c r="C109" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D109" s="1" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
         <v>324</v>
       </c>
@@ -4445,8 +5143,11 @@
       <c r="C110" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D110" s="1" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
         <v>327</v>
       </c>
@@ -4456,8 +5157,11 @@
       <c r="C111" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D111" s="1" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
         <v>330</v>
       </c>
@@ -4467,8 +5171,11 @@
       <c r="C112" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D112" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
         <v>333</v>
       </c>
@@ -4478,8 +5185,11 @@
       <c r="C113" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D113" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
         <v>336</v>
       </c>
@@ -4489,8 +5199,11 @@
       <c r="C114" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D114" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A115" t="s">
         <v>339</v>
       </c>
@@ -4500,8 +5213,11 @@
       <c r="C115" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D115" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A116" t="s">
         <v>342</v>
       </c>
@@ -4511,8 +5227,11 @@
       <c r="C116" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D116" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A117" t="s">
         <v>345</v>
       </c>
@@ -4522,8 +5241,11 @@
       <c r="C117" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D117" s="1" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A118" t="s">
         <v>348</v>
       </c>
@@ -4533,8 +5255,11 @@
       <c r="C118" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D118" s="1" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A119" t="s">
         <v>351</v>
       </c>
@@ -4544,8 +5269,11 @@
       <c r="C119" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D119" s="1" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A120" t="s">
         <v>354</v>
       </c>
@@ -4555,8 +5283,11 @@
       <c r="C120" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D120" s="1" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A121" t="s">
         <v>357</v>
       </c>
@@ -4566,8 +5297,11 @@
       <c r="C121" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D121" s="1" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A122" t="s">
         <v>360</v>
       </c>
@@ -4577,8 +5311,11 @@
       <c r="C122" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D122" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A123" t="s">
         <v>363</v>
       </c>
@@ -4588,8 +5325,11 @@
       <c r="C123" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D123" s="1" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A124" t="s">
         <v>366</v>
       </c>
@@ -4599,8 +5339,11 @@
       <c r="C124" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D124" s="1" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A125" t="s">
         <v>369</v>
       </c>
@@ -4610,8 +5353,11 @@
       <c r="C125" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D125" s="1" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A126" t="s">
         <v>372</v>
       </c>
@@ -4621,8 +5367,11 @@
       <c r="C126" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D126" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A127" t="s">
         <v>375</v>
       </c>
@@ -4632,8 +5381,11 @@
       <c r="C127" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D127" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A128" t="s">
         <v>378</v>
       </c>
@@ -4643,8 +5395,11 @@
       <c r="C128" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D128" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A129" t="s">
         <v>381</v>
       </c>
@@ -4654,8 +5409,11 @@
       <c r="C129" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D129" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A130" t="s">
         <v>384</v>
       </c>
@@ -4665,8 +5423,11 @@
       <c r="C130" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D130" s="1" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A131" t="s">
         <v>387</v>
       </c>
@@ -4676,8 +5437,11 @@
       <c r="C131" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D131" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A132" t="s">
         <v>390</v>
       </c>
@@ -4687,8 +5451,11 @@
       <c r="C132" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D132" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A133" t="s">
         <v>393</v>
       </c>
@@ -4698,8 +5465,11 @@
       <c r="C133" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D133" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A134" t="s">
         <v>396</v>
       </c>
@@ -4709,8 +5479,11 @@
       <c r="C134" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D134" s="1" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A135" t="s">
         <v>399</v>
       </c>
@@ -4720,8 +5493,11 @@
       <c r="C135" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D135" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A136" t="s">
         <v>402</v>
       </c>
@@ -4731,8 +5507,11 @@
       <c r="C136" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D136" s="1" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A137" t="s">
         <v>405</v>
       </c>
@@ -4742,8 +5521,11 @@
       <c r="C137" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D137" s="1" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A138" t="s">
         <v>408</v>
       </c>
@@ -4753,8 +5535,11 @@
       <c r="C138" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D138" s="1" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A139" t="s">
         <v>411</v>
       </c>
@@ -4764,8 +5549,11 @@
       <c r="C139" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D139" s="1" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A140" t="s">
         <v>414</v>
       </c>
@@ -4775,8 +5563,11 @@
       <c r="C140" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D140" s="1" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A141" t="s">
         <v>417</v>
       </c>
@@ -4786,8 +5577,11 @@
       <c r="C141" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D141" s="1" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A142" t="s">
         <v>420</v>
       </c>
@@ -4797,8 +5591,11 @@
       <c r="C142" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D142" s="1" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A143" t="s">
         <v>423</v>
       </c>
@@ -4808,8 +5605,11 @@
       <c r="C143" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D143" s="1" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A144" t="s">
         <v>426</v>
       </c>
@@ -4819,8 +5619,11 @@
       <c r="C144" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D144" s="1" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A145" t="s">
         <v>429</v>
       </c>
@@ -4830,8 +5633,11 @@
       <c r="C145" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D145" s="1" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A146" t="s">
         <v>432</v>
       </c>
@@ -4841,8 +5647,11 @@
       <c r="C146" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D146" s="1" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A147" t="s">
         <v>435</v>
       </c>
@@ -4852,8 +5661,11 @@
       <c r="C147" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D147" s="1" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A148" t="s">
         <v>438</v>
       </c>
@@ -4863,8 +5675,11 @@
       <c r="C148" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D148" s="1" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A149" t="s">
         <v>441</v>
       </c>
@@ -4874,8 +5689,11 @@
       <c r="C149" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D149" s="1" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A150" t="s">
         <v>444</v>
       </c>
@@ -4885,8 +5703,11 @@
       <c r="C150" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D150" s="1" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A151" t="s">
         <v>447</v>
       </c>
@@ -4896,8 +5717,11 @@
       <c r="C151" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D151" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A152" t="s">
         <v>450</v>
       </c>
@@ -4907,8 +5731,11 @@
       <c r="C152" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D152" s="1" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A153" t="s">
         <v>453</v>
       </c>
@@ -4918,8 +5745,11 @@
       <c r="C153" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D153" s="1" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A154" t="s">
         <v>456</v>
       </c>
@@ -4929,8 +5759,11 @@
       <c r="C154" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D154" s="1" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A155" t="s">
         <v>459</v>
       </c>
@@ -4940,8 +5773,11 @@
       <c r="C155" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D155" s="1" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A156" t="s">
         <v>462</v>
       </c>
@@ -4951,8 +5787,9 @@
       <c r="C156" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D156" s="1"/>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A157" t="s">
         <v>465</v>
       </c>
@@ -4962,8 +5799,11 @@
       <c r="C157" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D157" s="1" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A158" t="s">
         <v>468</v>
       </c>
@@ -4973,8 +5813,9 @@
       <c r="C158" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D158" s="1"/>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A159" t="s">
         <v>471</v>
       </c>
@@ -4984,8 +5825,11 @@
       <c r="C159" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D159" s="1" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A160" t="s">
         <v>474</v>
       </c>
@@ -4995,8 +5839,11 @@
       <c r="C160" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D160" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A161" t="s">
         <v>477</v>
       </c>
@@ -5006,8 +5853,11 @@
       <c r="C161" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D161" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A162" t="s">
         <v>480</v>
       </c>
@@ -5017,8 +5867,9 @@
       <c r="C162" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D162" s="1"/>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A163" t="s">
         <v>483</v>
       </c>
@@ -5028,8 +5879,11 @@
       <c r="C163" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D163" s="1" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A164" t="s">
         <v>486</v>
       </c>
@@ -5039,8 +5893,11 @@
       <c r="C164" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D164" s="1" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A165" t="s">
         <v>489</v>
       </c>
@@ -5050,8 +5907,11 @@
       <c r="C165" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D165" s="1" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A166" t="s">
         <v>492</v>
       </c>
@@ -5061,8 +5921,9 @@
       <c r="C166" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D166" s="1"/>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A167" t="s">
         <v>495</v>
       </c>
@@ -5072,8 +5933,11 @@
       <c r="C167" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D167" s="1" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A168" t="s">
         <v>498</v>
       </c>
@@ -5083,8 +5947,9 @@
       <c r="C168" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D168" s="1"/>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A169" t="s">
         <v>501</v>
       </c>
@@ -5094,8 +5959,11 @@
       <c r="C169" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D169" s="1" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A170" t="s">
         <v>504</v>
       </c>
@@ -5105,8 +5973,11 @@
       <c r="C170" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D170" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A171" t="s">
         <v>507</v>
       </c>
@@ -5116,8 +5987,11 @@
       <c r="C171" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D171" s="1" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A172" t="s">
         <v>510</v>
       </c>
@@ -5127,8 +6001,9 @@
       <c r="C172" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D172" s="1"/>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A173" t="s">
         <v>513</v>
       </c>
@@ -5138,8 +6013,11 @@
       <c r="C173" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D173" s="1" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A174" t="s">
         <v>516</v>
       </c>
@@ -5149,8 +6027,9 @@
       <c r="C174" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D174" s="1"/>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A175" t="s">
         <v>519</v>
       </c>
@@ -5160,8 +6039,9 @@
       <c r="C175" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D175" s="1"/>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A176" t="s">
         <v>522</v>
       </c>
@@ -5171,8 +6051,9 @@
       <c r="C176" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D176" s="1"/>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A177" t="s">
         <v>525</v>
       </c>
@@ -5183,7 +6064,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A178" t="s">
         <v>528</v>
       </c>
@@ -5194,7 +6075,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A179" t="s">
         <v>531</v>
       </c>
@@ -5205,7 +6086,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A180" t="s">
         <v>534</v>
       </c>
@@ -5213,7 +6094,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A181" t="s">
         <v>536</v>
       </c>
@@ -5221,7 +6102,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A182" t="s">
         <v>538</v>
       </c>
@@ -5229,7 +6110,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A183" t="s">
         <v>540</v>
       </c>
@@ -5237,7 +6118,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A184" t="s">
         <v>542</v>
       </c>
@@ -5245,7 +6126,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A185" t="s">
         <v>544</v>
       </c>
@@ -5253,7 +6134,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A186" t="s">
         <v>546</v>
       </c>
@@ -5261,7 +6142,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A187" t="s">
         <v>548</v>
       </c>
@@ -5269,7 +6150,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A188" t="s">
         <v>550</v>
       </c>
@@ -5277,7 +6158,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A189" t="s">
         <v>552</v>
       </c>
@@ -5285,7 +6166,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A190" t="s">
         <v>554</v>
       </c>
@@ -5293,7 +6174,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A191" t="s">
         <v>556</v>
       </c>
@@ -5301,7 +6182,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A192" t="s">
         <v>558</v>
       </c>
@@ -5309,79 +6190,88 @@
         <v>559</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A193" t="s">
         <v>560</v>
       </c>
       <c r="B193" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D193" s="1"/>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A194" t="s">
         <v>562</v>
       </c>
       <c r="B194" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D194" s="1"/>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A195" t="s">
         <v>564</v>
       </c>
       <c r="B195" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D195" s="1"/>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A196" t="s">
         <v>566</v>
       </c>
       <c r="B196" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D196" s="1"/>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A197" t="s">
         <v>568</v>
       </c>
       <c r="B197" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D197" s="1"/>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A198" t="s">
         <v>570</v>
       </c>
       <c r="B198" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D198" s="1"/>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A199" t="s">
         <v>572</v>
       </c>
       <c r="B199" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D199" s="1"/>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A200" t="s">
         <v>574</v>
       </c>
       <c r="B200" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D200" s="1"/>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A201" t="s">
         <v>576</v>
       </c>
       <c r="B201" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D201" s="1"/>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A202" t="s">
         <v>578</v>
       </c>
@@ -5391,8 +6281,11 @@
       <c r="C202" t="s">
         <v>925</v>
       </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D202" s="1" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A203" t="s">
         <v>580</v>
       </c>
@@ -5402,8 +6295,11 @@
       <c r="C203" t="s">
         <v>926</v>
       </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D203" s="1" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A204" t="s">
         <v>582</v>
       </c>
@@ -5413,8 +6309,11 @@
       <c r="C204" t="s">
         <v>927</v>
       </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D204" s="1" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A205" t="s">
         <v>584</v>
       </c>
@@ -5424,8 +6323,11 @@
       <c r="C205" t="s">
         <v>928</v>
       </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D205" s="1" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A206" t="s">
         <v>586</v>
       </c>
@@ -5435,8 +6337,11 @@
       <c r="C206" t="s">
         <v>929</v>
       </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D206" s="1" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A207" t="s">
         <v>588</v>
       </c>
@@ -5446,8 +6351,11 @@
       <c r="C207" t="s">
         <v>930</v>
       </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D207" s="1" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A208" t="s">
         <v>590</v>
       </c>
@@ -5457,8 +6365,11 @@
       <c r="C208" t="s">
         <v>931</v>
       </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D208" s="1" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A209" t="s">
         <v>592</v>
       </c>
@@ -5468,8 +6379,11 @@
       <c r="C209" t="s">
         <v>932</v>
       </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D209" s="1" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A210" t="s">
         <v>594</v>
       </c>
@@ -5479,8 +6393,11 @@
       <c r="C210" t="s">
         <v>933</v>
       </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D210" s="1" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A211" t="s">
         <v>596</v>
       </c>
@@ -5490,8 +6407,11 @@
       <c r="C211" t="s">
         <v>934</v>
       </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D211" s="1" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A212" t="s">
         <v>598</v>
       </c>
@@ -5501,8 +6421,11 @@
       <c r="C212" t="s">
         <v>919</v>
       </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D212" s="1" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A213" t="s">
         <v>600</v>
       </c>
@@ -5512,8 +6435,11 @@
       <c r="C213" t="s">
         <v>920</v>
       </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D213" s="1" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A214" t="s">
         <v>602</v>
       </c>
@@ -5523,8 +6449,11 @@
       <c r="C214" t="s">
         <v>921</v>
       </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D214" s="1" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A215" t="s">
         <v>604</v>
       </c>
@@ -5534,8 +6463,11 @@
       <c r="C215" t="s">
         <v>922</v>
       </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D215" s="1" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A216" t="s">
         <v>606</v>
       </c>
@@ -5545,8 +6477,11 @@
       <c r="C216" t="s">
         <v>924</v>
       </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D216" s="1" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A217" t="s">
         <v>608</v>
       </c>
@@ -5556,8 +6491,11 @@
       <c r="C217" t="s">
         <v>923</v>
       </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D217" s="1" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A218" t="s">
         <v>610</v>
       </c>
@@ -5567,8 +6505,9 @@
       <c r="C218" t="s">
         <v>612</v>
       </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D218" s="1"/>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A219" t="s">
         <v>613</v>
       </c>
@@ -5578,8 +6517,9 @@
       <c r="C219" t="s">
         <v>612</v>
       </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D219" s="1"/>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A220" t="s">
         <v>615</v>
       </c>
@@ -5589,8 +6529,9 @@
       <c r="C220" t="s">
         <v>612</v>
       </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D220" s="1"/>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A221" t="s">
         <v>617</v>
       </c>
@@ -5600,8 +6541,9 @@
       <c r="C221" t="s">
         <v>612</v>
       </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D221" s="1"/>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A222" t="s">
         <v>619</v>
       </c>
@@ -5611,8 +6553,9 @@
       <c r="C222" t="s">
         <v>612</v>
       </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D222" s="1"/>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A223" t="s">
         <v>621</v>
       </c>
@@ -5622,8 +6565,9 @@
       <c r="C223" t="s">
         <v>612</v>
       </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D223" s="1"/>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A224" t="s">
         <v>622</v>
       </c>
@@ -5633,8 +6577,9 @@
       <c r="C224" t="s">
         <v>612</v>
       </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D224" s="1"/>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A225" t="s">
         <v>624</v>
       </c>
@@ -5645,7 +6590,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A226" t="s">
         <v>626</v>
       </c>
@@ -5656,7 +6601,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A227" t="s">
         <v>628</v>
       </c>
@@ -5667,7 +6612,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A228" t="s">
         <v>630</v>
       </c>
@@ -5678,7 +6623,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A229" t="s">
         <v>632</v>
       </c>
@@ -5689,7 +6634,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A230" t="s">
         <v>633</v>
       </c>
@@ -5700,7 +6645,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A231" t="s">
         <v>634</v>
       </c>
@@ -5711,7 +6656,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A232" t="s">
         <v>636</v>
       </c>
@@ -5722,7 +6667,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A233" t="s">
         <v>638</v>
       </c>
@@ -5733,7 +6678,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A234" t="s">
         <v>639</v>
       </c>
@@ -5744,7 +6689,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A235" t="s">
         <v>640</v>
       </c>
@@ -5755,7 +6700,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A236" t="s">
         <v>641</v>
       </c>
@@ -5766,7 +6711,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A237" t="s">
         <v>643</v>
       </c>
@@ -5777,7 +6722,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A238" t="s">
         <v>644</v>
       </c>
@@ -5788,7 +6733,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A239" t="s">
         <v>645</v>
       </c>
@@ -5799,7 +6744,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A240" t="s">
         <v>646</v>
       </c>
@@ -5810,7 +6755,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A241" t="s">
         <v>647</v>
       </c>
@@ -5821,7 +6766,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A242" t="s">
         <v>648</v>
       </c>
@@ -5832,7 +6777,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A243" t="s">
         <v>650</v>
       </c>
@@ -5843,7 +6788,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A244" t="s">
         <v>651</v>
       </c>
@@ -5854,7 +6799,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A245" t="s">
         <v>652</v>
       </c>
@@ -5865,7 +6810,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A246" t="s">
         <v>653</v>
       </c>
@@ -5876,7 +6821,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A247" t="s">
         <v>655</v>
       </c>
@@ -5887,7 +6832,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A248" t="s">
         <v>656</v>
       </c>
@@ -5898,7 +6843,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A249" t="s">
         <v>658</v>
       </c>
@@ -5909,7 +6854,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A250" t="s">
         <v>660</v>
       </c>
@@ -5920,7 +6865,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A251" t="s">
         <v>662</v>
       </c>
@@ -5931,7 +6876,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A252" t="s">
         <v>663</v>
       </c>
@@ -5942,7 +6887,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A253" t="s">
         <v>665</v>
       </c>
@@ -5953,7 +6898,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A254" t="s">
         <v>666</v>
       </c>
@@ -5964,7 +6909,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A255" t="s">
         <v>667</v>
       </c>
@@ -5975,7 +6920,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A256" t="s">
         <v>669</v>
       </c>
@@ -5986,7 +6931,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A257" t="s">
         <v>671</v>
       </c>
@@ -5997,7 +6942,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A258" t="s">
         <v>672</v>
       </c>
@@ -6008,7 +6953,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A259" t="s">
         <v>674</v>
       </c>
@@ -6019,7 +6964,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A260" t="s">
         <v>676</v>
       </c>
@@ -6030,7 +6975,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A261" t="s">
         <v>677</v>
       </c>
@@ -6041,7 +6986,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A262" t="s">
         <v>679</v>
       </c>
@@ -6052,7 +6997,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A263" t="s">
         <v>681</v>
       </c>
@@ -6063,7 +7008,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A264" t="s">
         <v>682</v>
       </c>
@@ -6074,7 +7019,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A265" t="s">
         <v>683</v>
       </c>
@@ -6085,7 +7030,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A266" t="s">
         <v>684</v>
       </c>
@@ -6096,7 +7041,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A267" t="s">
         <v>686</v>
       </c>
@@ -6107,7 +7052,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A268" t="s">
         <v>688</v>
       </c>
@@ -6118,7 +7063,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A269" t="s">
         <v>689</v>
       </c>
@@ -6129,7 +7074,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A270" t="s">
         <v>691</v>
       </c>
@@ -6140,7 +7085,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A271" t="s">
         <v>692</v>
       </c>
@@ -6151,7 +7096,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A272" t="s">
         <v>694</v>
       </c>
@@ -6162,7 +7107,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A273" t="s">
         <v>696</v>
       </c>
@@ -6173,7 +7118,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A274" t="s">
         <v>698</v>
       </c>
@@ -6184,7 +7129,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A275" t="s">
         <v>699</v>
       </c>
@@ -6195,7 +7140,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A276" t="s">
         <v>701</v>
       </c>
@@ -6206,7 +7151,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A277" t="s">
         <v>702</v>
       </c>
@@ -6217,7 +7162,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A278" t="s">
         <v>703</v>
       </c>
@@ -6228,7 +7173,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A279" t="s">
         <v>705</v>
       </c>
@@ -6239,7 +7184,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A280" t="s">
         <v>706</v>
       </c>
@@ -6250,7 +7195,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A281" t="s">
         <v>707</v>
       </c>
@@ -6261,7 +7206,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A282" t="s">
         <v>709</v>
       </c>
@@ -6272,7 +7217,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A283" t="s">
         <v>711</v>
       </c>
@@ -6283,7 +7228,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A284" t="s">
         <v>713</v>
       </c>
@@ -6294,7 +7239,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A285" t="s">
         <v>714</v>
       </c>
@@ -6305,7 +7250,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A286" t="s">
         <v>716</v>
       </c>
@@ -6316,7 +7261,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A287" t="s">
         <v>718</v>
       </c>
@@ -6327,7 +7272,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A288" t="s">
         <v>719</v>
       </c>
@@ -6338,7 +7283,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A289" t="s">
         <v>721</v>
       </c>
@@ -6349,7 +7294,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A290" t="s">
         <v>723</v>
       </c>
@@ -6360,7 +7305,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A291" t="s">
         <v>724</v>
       </c>
@@ -6371,7 +7316,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A292" t="s">
         <v>726</v>
       </c>
@@ -6382,7 +7327,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A293" t="s">
         <v>727</v>
       </c>
@@ -6393,7 +7338,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A294" t="s">
         <v>728</v>
       </c>
@@ -6404,7 +7349,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A295" t="s">
         <v>730</v>
       </c>
@@ -6415,7 +7360,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A296" t="s">
         <v>732</v>
       </c>
@@ -6426,7 +7371,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A297" t="s">
         <v>733</v>
       </c>
@@ -6437,7 +7382,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A298" t="s">
         <v>734</v>
       </c>
@@ -6448,7 +7393,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A299" t="s">
         <v>735</v>
       </c>
@@ -6459,7 +7404,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A300" t="s">
         <v>737</v>
       </c>
@@ -6470,7 +7415,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A301" t="s">
         <v>738</v>
       </c>
@@ -6481,7 +7426,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A302" t="s">
         <v>739</v>
       </c>
@@ -6492,7 +7437,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A303" t="s">
         <v>741</v>
       </c>
@@ -6503,7 +7448,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A304" t="s">
         <v>742</v>
       </c>
@@ -6514,7 +7459,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A305" t="s">
         <v>744</v>
       </c>
@@ -6525,7 +7470,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A306" t="s">
         <v>746</v>
       </c>
@@ -6536,7 +7481,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A307" t="s">
         <v>748</v>
       </c>
@@ -6547,7 +7492,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A308" t="s">
         <v>750</v>
       </c>
@@ -6558,7 +7503,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A309" t="s">
         <v>752</v>
       </c>
@@ -6569,7 +7514,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A310" t="s">
         <v>753</v>
       </c>
@@ -6580,7 +7525,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A311" t="s">
         <v>755</v>
       </c>
@@ -6591,7 +7536,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A312" t="s">
         <v>756</v>
       </c>
@@ -6602,7 +7547,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A313" t="s">
         <v>757</v>
       </c>
@@ -6613,7 +7558,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A314" t="s">
         <v>758</v>
       </c>
@@ -6624,7 +7569,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A315" t="s">
         <v>760</v>
       </c>
@@ -6635,7 +7580,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A316" t="s">
         <v>761</v>
       </c>
@@ -6646,7 +7591,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A317" t="s">
         <v>763</v>
       </c>
@@ -6657,7 +7602,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A318" t="s">
         <v>764</v>
       </c>
@@ -6668,7 +7613,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A319" t="s">
         <v>766</v>
       </c>
@@ -6679,7 +7624,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A320" t="s">
         <v>768</v>
       </c>
@@ -6690,7 +7635,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A321" t="s">
         <v>769</v>
       </c>
@@ -6701,7 +7646,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A322" t="s">
         <v>771</v>
       </c>
@@ -6712,7 +7657,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A323" t="s">
         <v>773</v>
       </c>
@@ -6723,7 +7668,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A324" t="s">
         <v>775</v>
       </c>
@@ -6734,7 +7679,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A325" t="s">
         <v>776</v>
       </c>
@@ -6745,7 +7690,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A326" t="s">
         <v>777</v>
       </c>
@@ -6756,7 +7701,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A327" t="s">
         <v>779</v>
       </c>
@@ -6767,7 +7712,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A328" t="s">
         <v>780</v>
       </c>
@@ -6778,7 +7723,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A329" t="s">
         <v>782</v>
       </c>
@@ -6789,7 +7734,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A330" t="s">
         <v>784</v>
       </c>
@@ -6800,7 +7745,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A331" t="s">
         <v>785</v>
       </c>
@@ -6811,7 +7756,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A332" t="s">
         <v>787</v>
       </c>
@@ -6822,7 +7767,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A333" t="s">
         <v>789</v>
       </c>
@@ -6833,7 +7778,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A334" t="s">
         <v>791</v>
       </c>
@@ -6844,7 +7789,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A335" t="s">
         <v>792</v>
       </c>
@@ -6855,7 +7800,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A336" t="s">
         <v>794</v>
       </c>
@@ -6866,7 +7811,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A337" t="s">
         <v>796</v>
       </c>
@@ -6877,7 +7822,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A338" t="s">
         <v>798</v>
       </c>
@@ -6888,7 +7833,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A339" t="s">
         <v>800</v>
       </c>
@@ -6899,7 +7844,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A340" t="s">
         <v>801</v>
       </c>
@@ -6910,7 +7855,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A341" t="s">
         <v>803</v>
       </c>
@@ -6921,7 +7866,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A342" t="s">
         <v>805</v>
       </c>
@@ -6932,7 +7877,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A343" t="s">
         <v>807</v>
       </c>
@@ -6943,7 +7888,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A344" t="s">
         <v>809</v>
       </c>
@@ -6954,7 +7899,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A345" t="s">
         <v>811</v>
       </c>
@@ -6965,7 +7910,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A346" t="s">
         <v>812</v>
       </c>
@@ -6976,7 +7921,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A347" t="s">
         <v>813</v>
       </c>
@@ -6987,7 +7932,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A348" t="s">
         <v>814</v>
       </c>
@@ -6998,7 +7943,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A349" t="s">
         <v>816</v>
       </c>
@@ -7009,7 +7954,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A350" t="s">
         <v>818</v>
       </c>
@@ -7020,7 +7965,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A351" t="s">
         <v>820</v>
       </c>
@@ -7031,7 +7976,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A352" t="s">
         <v>821</v>
       </c>
@@ -7042,7 +7987,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A353" t="s">
         <v>823</v>
       </c>
@@ -7053,7 +7998,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A354" t="s">
         <v>825</v>
       </c>
@@ -7064,7 +8009,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A355" t="s">
         <v>826</v>
       </c>
@@ -7075,7 +8020,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A356" t="s">
         <v>828</v>
       </c>
@@ -7086,7 +8031,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A357" t="s">
         <v>830</v>
       </c>
@@ -7097,7 +8042,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A358" t="s">
         <v>832</v>
       </c>
@@ -7108,7 +8053,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A359" t="s">
         <v>834</v>
       </c>
@@ -7119,7 +8064,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A360" t="s">
         <v>836</v>
       </c>
@@ -7130,7 +8075,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A361" t="s">
         <v>838</v>
       </c>
@@ -7141,7 +8086,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A362" t="s">
         <v>839</v>
       </c>
@@ -7152,7 +8097,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A363" t="s">
         <v>840</v>
       </c>
@@ -7163,7 +8108,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A364" t="s">
         <v>841</v>
       </c>
@@ -7174,7 +8119,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A365" t="s">
         <v>842</v>
       </c>
@@ -7185,7 +8130,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A366" t="s">
         <v>843</v>
       </c>
@@ -7196,7 +8141,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A367" t="s">
         <v>844</v>
       </c>
@@ -7207,7 +8152,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A368" t="s">
         <v>846</v>
       </c>
@@ -7218,7 +8163,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A369" t="s">
         <v>848</v>
       </c>
@@ -7229,7 +8174,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A370" t="s">
         <v>849</v>
       </c>
@@ -7240,7 +8185,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A371" t="s">
         <v>851</v>
       </c>
@@ -7251,7 +8196,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A372" t="s">
         <v>852</v>
       </c>
@@ -7262,7 +8207,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A373" t="s">
         <v>853</v>
       </c>
@@ -7273,7 +8218,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A374" t="s">
         <v>854</v>
       </c>
@@ -7284,7 +8229,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A375" t="s">
         <v>855</v>
       </c>
@@ -7295,7 +8240,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A376" t="s">
         <v>856</v>
       </c>
@@ -7306,7 +8251,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A377" t="s">
         <v>857</v>
       </c>
@@ -7317,7 +8262,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A378" t="s">
         <v>858</v>
       </c>
@@ -7328,7 +8273,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A379" t="s">
         <v>859</v>
       </c>
@@ -7339,7 +8284,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A380" t="s">
         <v>860</v>
       </c>
@@ -7350,7 +8295,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A381" t="s">
         <v>861</v>
       </c>
@@ -7361,7 +8306,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A382" t="s">
         <v>862</v>
       </c>
